--- a/samplefilter.xlsx
+++ b/samplefilter.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">Phytochemi</t>
   </si>
@@ -227,69 +227,6 @@
   </si>
   <si>
     <t xml:space="preserve">Topological polar surface area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Artemisinic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  IMPHY013028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artemisic acid, artemisinic acid, qinghao acid (artemisic acid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-[(1R,4R,4aS,8aR)-4,7-dimethyl-1,2,3,4,4a,5,6,8a-octahydronaphthalen-1-yl]prop-2-enoic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15H22O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20309 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEMBL457385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZINC000034564537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCHEMBL159983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC1=C[C@H]2[C@@H](CC1)[C@H](C)CC[C@H]2C(=C)C(=O)O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InChI=1S/C15H22O2/c1-9-4-6-12-10(2)5-7-13(14(12)8-9)11(3)15(16)17/h8,10,12-14H,3-7H2,1-2H3,(H,16,17)/t10-,12+,13+,14+/m1/s1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLQMEXSCSAIXGB-SAXRGWBVSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC=C[C@H][C@@H]CC6))[C@H]C)CC[C@H]6C=C)C=O)O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C=C(C)C(=O)O, CC(C)=CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Passed </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Good </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bad </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soluble </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yes </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> High </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No </t>
   </si>
 </sst>
 </file>
@@ -335,7 +272,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,12 +283,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF2A6099"/>
         <bgColor rgb="FF666699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -389,7 +320,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -403,10 +334,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -470,7 +397,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -490,7 +417,7 @@
   <dimension ref="A1:BQ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -709,215 +636,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <f aca="false">TRIM(A2)</f>
-        <v>Artemisinic acid</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <f aca="false">"upload/chem/"&amp;B2&amp;".png"</f>
-        <v>upload/chem/Artemisinic acid.png</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>10922465</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>23220689</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>2.744</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>234.34</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY2" s="4" t="n">
-        <v>0.5847</v>
-      </c>
-      <c r="AZ2" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE2" s="4" t="n">
-        <v>-5.07</v>
-      </c>
-      <c r="BF2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN2" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BO2" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="BP2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BQ2" s="4" t="n">
-        <v>37.3</v>
-      </c>
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
